--- a/PyAutoMail/contacts.xlsx
+++ b/PyAutoMail/contacts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mail_send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mail_send\excel_related_project\PyAutoMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B95F6-8E59-4754-9124-12108BB44E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5E41E5-4B53-414E-BCBC-980ADA2C6868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Email</t>
   </si>
@@ -34,70 +34,14 @@
     <t>12345</t>
   </si>
   <si>
-    <t>care.finance@adityabirlacapital.com</t>
-  </si>
-  <si>
-    <t>ABMUMUPS000000833990</t>
-  </si>
-  <si>
-    <t> GS001BL02473012 </t>
-  </si>
-  <si>
-    <t>customerservice@protium.co.in</t>
-  </si>
-  <si>
-    <t>helpdesk@neogrowth.in</t>
-  </si>
-  <si>
-    <t>customercare@ugrocapital.com</t>
-  </si>
-  <si>
-    <t>bhflwecare@bajajhousing.co.in</t>
-  </si>
-  <si>
-    <t>support@creditsaison-in.com</t>
-  </si>
-  <si>
-    <t>care@lendingkart.com</t>
-  </si>
-  <si>
-    <t>UGDELSU0000027377</t>
-  </si>
-  <si>
-    <t>NEOC1288240</t>
-  </si>
-  <si>
-    <t> H581HLD1009763</t>
-  </si>
-  <si>
-    <t>SL3902706</t>
-  </si>
-  <si>
-    <r>
-      <t>reach@indiainfoline.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF5F6368"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>amanyuvraj98761@gmail.com</t>
-  </si>
-  <si>
-    <t>switishah9871@gmail.com</t>
+    <t>12346</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,11 +73,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF353C3F"/>
-      <name val="Anek Latin"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF500050"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -169,14 +108,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF5F6368"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,9 +144,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -218,53 +155,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -275,6 +222,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDEF25D8-FE94-41CE-BE75-4709D7D28D5D}" name="Table1" displayName="Table1" ref="A1:B12" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:B12" xr:uid="{CDEF25D8-FE94-41CE-BE75-4709D7D28D5D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0925CBF5-9E47-401B-BF85-E48634E145BE}" name="Email"/>
+    <tableColumn id="2" xr3:uid="{F6A1A3D5-1E6D-4DBF-890B-0FBE737A547E}" name="LoanNumber"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,118 +525,74 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9">
-        <v>155781635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6">
-      <c r="A9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12">
-        <v>11780706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6">
-        <v>98765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6">
-        <v>91827387</v>
-      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{CE3431A8-C386-44BF-B043-D8220A779923}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{A6E7A2D0-9A48-4CB7-A867-366376974F3D}"/>
-    <hyperlink ref="A11" r:id="rId3" xr:uid="{E39A108B-2077-43F2-AC3E-401AF1AECDBD}"/>
-    <hyperlink ref="A12" r:id="rId4" xr:uid="{936E2EE7-918C-4C63-8C72-EEB507B3C63A}"/>
-  </hyperlinks>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>